--- a/app/Plantillas/Entrada/indicadores_habitat.xlsx
+++ b/app/Plantillas/Entrada/indicadores_habitat.xlsx
@@ -7784,13 +7784,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{933CD6EA-E54F-4B8C-9CDF-F52AA00CB20D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB706B90-27F0-46F7-9982-D892C23AEB7C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233763B9-378E-4223-9C42-0A10703B4705}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F770E1E8-3317-4D30-B87F-01B3DD3B5B4B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AFCA97C-84E1-4897-B07D-13A0DC34F040}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEE30C5-3641-4719-8C2B-CD13581622B0}"/>
 </file>
--- a/app/Plantillas/Entrada/indicadores_habitat.xlsx
+++ b/app/Plantillas/Entrada/indicadores_habitat.xlsx
@@ -7784,13 +7784,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB706B90-27F0-46F7-9982-D892C23AEB7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E5402D-12F7-4CC4-8A88-FEEB7C99EC98}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F770E1E8-3317-4D30-B87F-01B3DD3B5B4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE921D2A-2145-4123-A9E5-5083D0B66688}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEE30C5-3641-4719-8C2B-CD13581622B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E90AC69-5FA1-4AD1-9D99-C10F528838A2}"/>
 </file>
--- a/app/Plantillas/Entrada/indicadores_habitat.xlsx
+++ b/app/Plantillas/Entrada/indicadores_habitat.xlsx
@@ -7784,13 +7784,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E5402D-12F7-4CC4-8A88-FEEB7C99EC98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD87A7FA-FFC1-40C4-A3CC-770839F056C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE921D2A-2145-4123-A9E5-5083D0B66688}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1348625E-83FD-488C-9F3F-15C346853480}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E90AC69-5FA1-4AD1-9D99-C10F528838A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11712B1A-55A4-462E-B944-CE17C1E9FF7E}"/>
 </file>
--- a/app/Plantillas/Entrada/indicadores_habitat.xlsx
+++ b/app/Plantillas/Entrada/indicadores_habitat.xlsx
@@ -7784,13 +7784,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD87A7FA-FFC1-40C4-A3CC-770839F056C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D39A5F1C-3459-4F02-8995-779E8FD537A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1348625E-83FD-488C-9F3F-15C346853480}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D09A19-A67C-446A-9A8D-C9B41220A4BF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11712B1A-55A4-462E-B944-CE17C1E9FF7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283124F0-3E86-453B-82D5-6AC9149A8882}"/>
 </file>